--- a/University lists.xlsx
+++ b/University lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Higher Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231147D-0C6D-453D-9BD7-FC53C63910D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68CB4D-5AEE-4EC6-AB0C-0A1C838618F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,7 +664,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
     <col min="21" max="21" width="42.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="41.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="76.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="76.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.44140625" style="21" customWidth="1"/>
     <col min="25" max="26" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="8.88671875" style="17"/>
   </cols>
@@ -1092,7 +1092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="24" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>1</v>
       </c>
